--- a/biology/Médecine/Jules_Gavarret/Jules_Gavarret.xlsx
+++ b/biology/Médecine/Jules_Gavarret/Jules_Gavarret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Dominique Jules Gavarret (ou parfois Louis Denis Jules Gavarret) (né le 28 janvier 1809 à Astaffort en Lot-et-Garonne et mort le 30 août 1890 à Valmont[1]) est un médecin français[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Dominique Jules Gavarret (ou parfois Louis Denis Jules Gavarret) (né le 28 janvier 1809 à Astaffort en Lot-et-Garonne et mort le 30 août 1890 à Valmont) est un médecin français.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l’École Polytechnique, puis fait son service militaire comme officier d'artillerie. En 1833, il démissionne et commence ses études avec Gabriel Andral (1797-1876).
-Il devient professeur de physique médicale à la Faculté de médecine de Paris[3]. Il entre à l'Académie de Médecine le 31 août 1858[4] et en devient Président en 1882.
-Il dirigera la revue Anthropologie[3].
-Depuis 2016, la Maison de santé pluridisciplinaire d'Astaffort porte son nom[5],[6].
+Il devient professeur de physique médicale à la Faculté de médecine de Paris. Il entre à l'Académie de Médecine le 31 août 1858 et en devient Président en 1882.
+Il dirigera la revue Anthropologie.
+Depuis 2016, la Maison de santé pluridisciplinaire d'Astaffort porte son nom,.
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gavarret est connu pour avoir systématisé et développé la méthodologie statistique en médecine à la suite des travaux de Pierre-Charles-Alexandre Louis (1787-1872). Son objectif était de faire de la médecine une science exacte, notamment en ce qui concerne le diagnostic, mais aussi de réfuter l'« approche inductive » qui prévalait à l'époque. Gavarret est un fervent partisan de la méthode statistique, et un précurseur de la médecine fondée sur les faits.
-En 1840, Gavarret et Gabriel Andral furent les premiers à montrer que composition sanguine varie en fonction de l'état pathologique du sujet. Leurs recherches ont démontré l'importance de la chimie du sang comme moyen de confirmer un diagnostic[7].
-D'autre part, dans la mesure où Andral fut un des premiers à s'intéresser à la mesure de la température des patients, Gavarret et lui réalisent pour la première fois en 1839 la description de 6 cas de fièvre intermittente[8].
+En 1840, Gavarret et Gabriel Andral furent les premiers à montrer que composition sanguine varie en fonction de l'état pathologique du sujet. Leurs recherches ont démontré l'importance de la chimie du sang comme moyen de confirmer un diagnostic.
+D'autre part, dans la mesure où Andral fut un des premiers à s'intéresser à la mesure de la température des patients, Gavarret et lui réalisent pour la première fois en 1839 la description de 6 cas de fièvre intermittente.
 </t>
         </is>
       </c>
